--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -670,13 +670,13 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -814,22 +814,22 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
         <v>1.94</v>
@@ -841,7 +841,7 @@
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
         <v>2.6</v>
@@ -952,7 +952,7 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -1210,13 +1210,13 @@
         <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1234,13 +1234,13 @@
         <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -676,7 +676,7 @@
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
@@ -817,16 +817,16 @@
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
@@ -835,13 +835,13 @@
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
         <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
         <v>2.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -670,13 +670,13 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -814,7 +814,7 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -835,13 +835,13 @@
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -940,19 +940,19 @@
         <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
         <v>1.48</v>
@@ -1213,7 +1213,7 @@
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
         <v>2.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -670,25 +670,25 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
         <v>4.1</v>
@@ -703,76 +703,76 @@
         <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -820,28 +820,28 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
         <v>2.58</v>
@@ -946,13 +946,13 @@
         <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
         <v>1.68</v>
@@ -1237,7 +1237,7 @@
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q6" t="n">
         <v>1.82</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -715,10 +715,10 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>1.33</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
         <v>2.58</v>
@@ -946,13 +946,13 @@
         <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
@@ -703,10 +703,10 @@
         <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
         <v>1.44</v>
@@ -718,7 +718,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -805,55 +805,55 @@
         <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.33</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1042,276 +1042,6 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Truro City</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,25 +670,25 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>4.1</v>
@@ -703,76 +703,76 @@
         <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.5</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>55</v>
       </c>
-      <c r="AB2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>65</v>
-      </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -814,49 +814,49 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
         <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,136 +913,541 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>St Gallen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>English National League</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Truro City</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Wealdstone</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>2.7</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.48</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>2.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>3.35</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>3.95</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.3</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.82</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
+      <c r="R6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -676,7 +676,7 @@
         <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -685,7 +685,7 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -712,10 +712,10 @@
         <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
@@ -745,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
@@ -760,7 +760,7 @@
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>46</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
         <v>1.98</v>
@@ -940,13 +940,13 @@
         <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
         <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -958,13 +958,13 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
         <v>2.2</v>
@@ -973,76 +973,76 @@
         <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="n">
         <v>21</v>
       </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AG4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN4" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1111,10 +1111,10 @@
         <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
         <v>2.32</v>
@@ -1126,7 +1126,7 @@
         <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1225,10 +1225,10 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>3.9</v>
@@ -1243,76 +1243,76 @@
         <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1348,37 +1348,37 @@
         <v>1.93</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>2.6</v>
@@ -1387,7 +1387,7 @@
         <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
         <v>1.15</v>
@@ -1396,10 +1396,10 @@
         <v>2.06</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
         <v>70</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
@@ -1435,10 +1435,10 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -679,13 +679,13 @@
         <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -715,7 +715,7 @@
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
@@ -832,7 +832,7 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
         <v>1.84</v>
@@ -970,7 +970,7 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
@@ -979,7 +979,7 @@
         <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
         <v>2.32</v>
@@ -1240,7 +1240,7 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1249,7 +1249,7 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1384,7 +1384,7 @@
         <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
         <v>1.01</v>
@@ -1399,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>70</v>
@@ -1411,7 +1411,7 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -685,7 +685,7 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -745,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
@@ -760,10 +760,10 @@
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
@@ -772,7 +772,7 @@
         <v>27</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -841,7 +841,7 @@
         <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
@@ -970,13 +970,13 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
         <v>1.52</v>
@@ -1009,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
         <v>38</v>
@@ -1138,7 +1138,7 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1153,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1387,7 +1387,7 @@
         <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
         <v>1.15</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.48</v>
@@ -679,43 +679,43 @@
         <v>2.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
@@ -724,19 +724,19 @@
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -745,34 +745,34 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL2" t="n">
         <v>44</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>46</v>
-      </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +844,7 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -970,25 +970,25 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
         <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1078,7 +1078,7 @@
         <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I5" t="n">
         <v>1.87</v>
@@ -1153,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1372,7 +1372,7 @@
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1384,7 +1384,7 @@
         <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1448,6 +1448,141 @@
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -709,10 +709,10 @@
         <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.55</v>
@@ -727,16 +727,16 @@
         <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -745,34 +745,34 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
         <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -970,19 +970,19 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>1.45</v>
@@ -1081,7 +1081,7 @@
         <v>1.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1102,31 +1102,31 @@
         <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>2.18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W5" t="n">
         <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1135,7 +1135,7 @@
         <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
         <v>990</v>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1159,22 +1159,22 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
@@ -1210,7 +1210,7 @@
         <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.48</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1240,7 +1240,7 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.38</v>
@@ -1255,10 +1255,10 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
         <v>19.5</v>
@@ -1282,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
@@ -1294,19 +1294,19 @@
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
         <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
         <v>26</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.01</v>
       </c>
-      <c r="I7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.26</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
         <v>70</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1516,7 +1516,7 @@
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.94</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,75 +788,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.21</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>1.21</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
         <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,99 +1058,99 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.82</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1159,31 +1159,31 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.27</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="W6" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,261 +1328,666 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="W7" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X8" t="n">
+        <v>990</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Truro City</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F11" t="n">
         <v>1.87</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>4.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>3.85</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.08</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N11" t="n">
         <v>3.1</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O11" t="n">
         <v>1.38</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>2.1</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R11" t="n">
         <v>1.27</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S11" t="n">
         <v>4.2</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T11" t="n">
         <v>1.94</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="U11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.26</v>
       </c>
-      <c r="W8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="W11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y11" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="Z11" t="n">
         <v>36</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>8</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC11" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD11" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH11" t="n">
         <v>23</v>
       </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>24</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK11" t="n">
         <v>24</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL11" t="n">
         <v>46</v>
       </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>18</v>
       </c>
-      <c r="AO8" t="n">
-        <v>120</v>
+      <c r="AO11" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -793,12 +793,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Aliaga Futbol AS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -829,19 +829,19 @@
         <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.25</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.25</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.1</v>
       </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="n">
         <v>85</v>
       </c>
-      <c r="AK8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>55</v>
-      </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>4.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56</v>
+        <v>1.76</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>1.86</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>2.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.66</v>
       </c>
       <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.99</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="n">
         <v>21</v>
       </c>
-      <c r="Z10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,102 +1868,102 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -1975,19 +1975,154 @@
         <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>1.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>1.21</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.46</v>
@@ -1105,25 +1105,25 @@
         <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
@@ -1150,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>15.5</v>
@@ -1159,22 +1159,22 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
         <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1198,103 +1198,103 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>7.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.27</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.1</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>38</v>
       </c>
-      <c r="Y9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>100</v>
-      </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>1.77</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.54</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>20</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="n">
         <v>36</v>
       </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>28</v>
-      </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,125 +2003,260 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
         <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>27</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI13" t="n">
         <v>95</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ13" t="n">
         <v>28</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK13" t="n">
         <v>28</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>21</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO13" t="n">
         <v>120</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -700,7 +700,7 @@
         <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>1.26</v>
@@ -715,25 +715,25 @@
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="n">
         <v>14</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -742,10 +742,10 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
         <v>17.5</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
         <v>3.55</v>
@@ -1009,7 +1009,7 @@
         <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>18.5</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G5" t="n">
         <v>3.05</v>
@@ -1081,16 +1081,16 @@
         <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1120,10 +1120,10 @@
         <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1147,10 +1147,10 @@
         <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>15.5</v>
@@ -1159,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
         <v>55</v>
@@ -1171,10 +1171,10 @@
         <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1360,40 +1360,40 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
         <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.45</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.42</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
@@ -1447,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
@@ -1489,10 +1489,10 @@
         <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1501,88 +1501,88 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11</v>
       </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1627,10 +1627,10 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1666,10 +1666,10 @@
         <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
         <v>28</v>
@@ -1687,7 +1687,7 @@
         <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1708,7 +1708,7 @@
         <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>85</v>
@@ -1783,7 +1783,7 @@
         <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S10" t="n">
         <v>2.2</v>
@@ -1885,22 +1885,22 @@
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1930,7 +1930,7 @@
         <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
         <v>1.53</v>
@@ -1966,13 +1966,13 @@
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
         <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -1981,13 +1981,13 @@
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2041,10 +2041,10 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>2.04</v>
@@ -2059,13 +2059,13 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
         <v>65</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
@@ -2197,7 +2197,7 @@
         <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>1.26</v>
@@ -2206,37 +2206,37 @@
         <v>2.02</v>
       </c>
       <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>95</v>
@@ -2254,10 +2254,10 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,25 +679,25 @@
         <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
@@ -724,7 +724,7 @@
         <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.5</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -841,7 +841,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -961,13 +961,13 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.6</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>1.31</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>4.2</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
         <v>46</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.49</v>
+        <v>4.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.95</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>1.77</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>38</v>
       </c>
-      <c r="Y10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>36</v>
-      </c>
       <c r="AO10" t="n">
-        <v>8.199999999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>1.77</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG11" t="n">
         <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
         <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL11" t="n">
         <v>50</v>
       </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,78 +2138,78 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
         <v>40</v>
@@ -2218,45 +2218,180 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>22</v>
       </c>
-      <c r="AE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AK13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>12</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AO13" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
         <v>11</v>
       </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AH14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI14" t="n">
         <v>95</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ14" t="n">
         <v>28</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK14" t="n">
         <v>28</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL14" t="n">
         <v>55</v>
       </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO14" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -679,7 +679,7 @@
         <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
         <v>1.7</v>
@@ -940,10 +940,10 @@
         <v>1.27</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
         <v>15.5</v>
@@ -961,13 +961,13 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
         <v>1.71</v>
@@ -988,7 +988,7 @@
         <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1078,7 +1078,7 @@
         <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
         <v>12.5</v>
@@ -1093,7 +1093,7 @@
         <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.15</v>
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
@@ -1252,7 +1252,7 @@
         <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
@@ -1270,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
         <v>16</v>
@@ -1285,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1294,13 +1294,13 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>46</v>
@@ -1351,7 +1351,7 @@
         <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
@@ -1363,7 +1363,7 @@
         <v>1.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>1.02</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
         <v>3.25</v>
@@ -1489,7 +1489,7 @@
         <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1498,10 +1498,10 @@
         <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1510,7 +1510,7 @@
         <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.4</v>
@@ -1639,16 +1639,16 @@
         <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
         <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>3.45</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
         <v>2.02</v>
@@ -1672,19 +1672,19 @@
         <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1705,19 +1705,19 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
         <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,10 +1777,10 @@
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
@@ -1789,16 +1789,16 @@
         <v>2.78</v>
       </c>
       <c r="T10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.66</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1807,10 +1807,10 @@
         <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1819,40 +1819,40 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
         <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
         <v>1.86</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
@@ -1921,13 +1921,13 @@
         <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="V11" t="n">
         <v>2.16</v>
@@ -1951,10 +1951,10 @@
         <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
         <v>20</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
         <v>2.62</v>
@@ -2029,13 +2029,13 @@
         <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2044,25 +2044,25 @@
         <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
         <v>1.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
         <v>1.55</v>
@@ -2101,7 +2101,7 @@
         <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
         <v>4.9</v>
@@ -2194,13 +2194,13 @@
         <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
         <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
         <v>2.02</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>60</v>
@@ -2236,13 +2236,13 @@
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.45</v>
@@ -2329,25 +2329,25 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
         <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,13 +2356,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>95</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -673,10 +673,10 @@
         <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.05</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
@@ -712,10 +712,10 @@
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.37</v>
@@ -814,7 +814,7 @@
         <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>5.5</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
         <v>1.1</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -1213,13 +1213,13 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1246,16 +1246,16 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1270,10 +1270,10 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
@@ -1282,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1294,13 +1294,13 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>46</v>
@@ -1309,7 +1309,7 @@
         <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>22</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
         <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
         <v>3.05</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1510,7 +1510,7 @@
         <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,19 +1774,19 @@
         <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
         <v>1.6</v>
@@ -1795,25 +1795,25 @@
         <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
@@ -1825,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>14.5</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
         <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I11" t="n">
         <v>1.86</v>
@@ -1897,7 +1897,7 @@
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1924,7 +1924,7 @@
         <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="n">
         <v>2.58</v>
@@ -1936,7 +1936,7 @@
         <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
         <v>18</v>
@@ -1948,13 +1948,13 @@
         <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>20</v>
@@ -1966,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>30</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2035,7 +2035,7 @@
         <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,7 +2047,7 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
         <v>1.99</v>
@@ -2062,22 +2062,22 @@
         <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>15</v>
@@ -2107,7 +2107,7 @@
         <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2161,16 +2161,16 @@
         <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2194,13 +2194,13 @@
         <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>2.02</v>
@@ -2236,7 +2236,7 @@
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
         <v>55</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
         <v>1.97</v>
@@ -2302,7 +2302,7 @@
         <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.45</v>
@@ -2329,7 +2329,7 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>380</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>55</v>
       </c>
-      <c r="AL2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>60</v>
-      </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -814,10 +814,10 @@
         <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -841,22 +841,22 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
         <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>15.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
         <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1222,10 +1222,10 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1249,10 +1249,10 @@
         <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.57</v>
@@ -1261,28 +1261,28 @@
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z6" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
         <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>1.21</v>
@@ -1366,34 +1366,34 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1504,7 +1504,7 @@
         <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.69</v>
@@ -1525,43 +1525,43 @@
         <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
         <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1570,19 +1570,19 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>1.84</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1636,19 +1636,19 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
         <v>3.45</v>
@@ -1657,19 +1657,19 @@
         <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
@@ -1681,10 +1681,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1705,19 +1705,19 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN10" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -1912,31 +1912,31 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>18</v>
@@ -1951,22 +1951,22 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
         <v>46</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>30</v>
@@ -1978,13 +1978,13 @@
         <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
         <v>8.4</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
         <v>2.78</v>
@@ -2032,7 +2032,7 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.42</v>
@@ -2041,28 +2041,28 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.56</v>
@@ -2071,22 +2071,22 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>15</v>
@@ -2095,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15.5</v>
@@ -2107,10 +2107,10 @@
         <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
         <v>48</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2194,34 +2194,34 @@
         <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.08</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2230,31 +2230,31 @@
         <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.45</v>
@@ -2329,7 +2329,7 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.87</v>
@@ -2338,16 +2338,16 @@
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,10 +2356,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>75</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>95</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
         <v>2.68</v>
@@ -697,7 +697,7 @@
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -712,13 +712,13 @@
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -730,7 +730,7 @@
         <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
@@ -757,7 +757,7 @@
         <v>300</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AK2" t="n">
         <v>120</v>
@@ -766,10 +766,10 @@
         <v>380</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -805,13 +805,13 @@
         <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -826,10 +826,10 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.86</v>
@@ -841,10 +841,10 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
         <v>1.77</v>
@@ -856,7 +856,7 @@
         <v>2.62</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -940,61 +940,61 @@
         <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
         <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
         <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
         <v>2.48</v>
@@ -1219,43 +1219,43 @@
         <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
         <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
         <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1276,13 +1276,13 @@
         <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>21</v>
@@ -1351,16 +1351,16 @@
         <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
@@ -1369,55 +1369,55 @@
         <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W7" t="n">
         <v>1.05</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA7" t="n">
         <v>10</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1501,7 +1501,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1510,7 +1510,7 @@
         <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1552,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
         <v>20</v>
@@ -1570,19 +1570,19 @@
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1636,19 +1636,19 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
         <v>3.45</v>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
@@ -1687,22 +1687,22 @@
         <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -1717,7 +1717,7 @@
         <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -1882,109 +1882,109 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.3</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>8.4</v>
@@ -2020,7 +2020,7 @@
         <v>2.78</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
         <v>2.6</v>
@@ -2035,7 +2035,7 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,7 +2047,7 @@
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2062,13 +2062,13 @@
         <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
         <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
@@ -2077,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2116,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
@@ -2155,7 +2155,7 @@
         <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -2179,7 +2179,7 @@
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.22</v>
@@ -2200,7 +2200,7 @@
         <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>
@@ -2212,13 +2212,13 @@
         <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>10.5</v>
@@ -2227,10 +2227,10 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2242,16 +2242,16 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>10</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.45</v>
@@ -2338,31 +2338,31 @@
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
@@ -2371,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>28</v>
@@ -2383,13 +2383,13 @@
         <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.43</v>
@@ -691,16 +691,16 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -712,10 +712,10 @@
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
         <v>1.37</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>25</v>
@@ -751,7 +751,7 @@
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>300</v>
@@ -772,7 +772,7 @@
         <v>120</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -829,34 +829,34 @@
         <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
         <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>1.35</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
         <v>16</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
@@ -1078,16 +1078,16 @@
         <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1096,7 +1096,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
@@ -1114,13 +1114,13 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
         <v>2.42</v>
@@ -1141,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
         <v>40</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
         <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I7" t="n">
         <v>1.25</v>
       </c>
       <c r="J7" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.19</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>3.45</v>
@@ -1372,7 +1372,7 @@
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
         <v>1.39</v>
@@ -1384,13 +1384,13 @@
         <v>1.98</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="W7" t="n">
         <v>1.05</v>
@@ -1399,7 +1399,7 @@
         <v>80</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
         <v>9.800000000000001</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1525,10 +1525,10 @@
         <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>55</v>
@@ -1549,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>95</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
@@ -1564,13 +1564,13 @@
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
         <v>300</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1651,13 +1651,13 @@
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
@@ -1672,19 +1672,19 @@
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
         <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>330</v>
@@ -1699,25 +1699,25 @@
         <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1753,13 +1753,13 @@
         <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.9</v>
@@ -1771,34 +1771,34 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
         <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
         <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1810,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
         <v>17.5</v>
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="n">
         <v>1.94</v>
@@ -1921,13 +1921,13 @@
         <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
         <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V11" t="n">
         <v>2.06</v>
@@ -1936,19 +1936,19 @@
         <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -1960,16 +1960,16 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
         <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ11" t="n">
         <v>95</v>
@@ -1978,13 +1978,13 @@
         <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="n">
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="AO11" t="n">
         <v>8.4</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2047,37 +2047,37 @@
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
         <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>44</v>
@@ -2098,7 +2098,7 @@
         <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>19.5</v>
@@ -2116,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
@@ -2155,7 +2155,7 @@
         <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -2185,7 +2185,7 @@
         <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.48</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.95</v>
@@ -2329,16 +2329,16 @@
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -685,40 +685,40 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -745,13 +745,13 @@
         <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>300</v>
@@ -763,7 +763,7 @@
         <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -853,7 +853,7 @@
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
         <v>1.06</v>
@@ -1006,7 +1006,7 @@
         <v>8.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
         <v>130</v>
@@ -1030,7 +1030,7 @@
         <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1090,31 +1090,31 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.76</v>
@@ -1123,7 +1123,7 @@
         <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
         <v>90</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
         <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
         <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
         <v>9.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.98</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="W7" t="n">
         <v>1.05</v>
       </c>
       <c r="X7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1510,13 +1510,13 @@
         <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
         <v>1.81</v>
@@ -1528,7 +1528,7 @@
         <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1540,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
         <v>300</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1618,46 +1618,46 @@
         <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
         <v>1.25</v>
@@ -1666,25 +1666,25 @@
         <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
         <v>330</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>36</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -1753,46 +1753,46 @@
         <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>1.48</v>
@@ -1801,19 +1801,19 @@
         <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
         <v>8.800000000000001</v>
@@ -1822,37 +1822,37 @@
         <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I11" t="n">
         <v>1.94</v>
@@ -1897,10 +1897,10 @@
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1909,22 +1909,22 @@
         <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U11" t="n">
         <v>2.6</v>
@@ -1942,16 +1942,16 @@
         <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
@@ -1960,31 +1960,31 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
         <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
         <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>8.4</v>
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
         <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2080,7 +2080,7 @@
         <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2155,61 +2155,61 @@
         <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
         <v>85</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2230,16 +2230,16 @@
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2251,10 +2251,10 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
         <v>55</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2305,22 +2305,22 @@
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -694,85 +694,85 @@
         <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM2" t="n">
         <v>120</v>
       </c>
-      <c r="AL2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>580</v>
-      </c>
       <c r="AN2" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -793,67 +793,67 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aliaga Futbol AS</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68 Aksaray Belediyespor</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,73 +928,73 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Aliaga Futbol AS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.9</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,73 +1063,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ankaraspor</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>40</v>
       </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC6" t="n">
         <v>14</v>
       </c>
-      <c r="Z6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>9.4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>3.15</v>
+        <v>1.69</v>
       </c>
       <c r="W7" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>1.16</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.65</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.25</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL10" t="n">
         <v>36</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>1.94</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>34</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>27</v>
-      </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>1.89</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.33</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>15</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO12" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,255 +2143,390 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>85</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>1.89</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>4.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.46</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M15" t="n">
         <v>1.08</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>3.25</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>1.39</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2.18</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R15" t="n">
         <v>1.27</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>4.2</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="T15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.27</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W15" t="n">
         <v>2</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X15" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y15" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z15" t="n">
         <v>36</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD15" t="n">
         <v>23</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
         <v>12</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH15" t="n">
         <v>27</v>
       </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>28</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK15" t="n">
         <v>28</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL15" t="n">
         <v>46</v>
       </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO15" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
         <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
         <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
         <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>1.78</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,19 +829,19 @@
         <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
@@ -961,37 +961,37 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>20</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>28</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
         <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,55 +1075,55 @@
         <v>1.26</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
         <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X5" t="n">
         <v>24</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
         <v>130</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
       </c>
       <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.09</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="X6" t="n">
         <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1360,94 +1360,94 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
         <v>1.69</v>
       </c>
       <c r="U7" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
         <v>4.2</v>
@@ -1621,34 +1621,34 @@
         <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1771,88 +1771,88 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
         <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>15</v>
@@ -1948,7 +1948,7 @@
         <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1957,34 +1957,34 @@
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="I12" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
@@ -2041,49 +2041,49 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
       </c>
       <c r="Y12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z12" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
       <c r="AA12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB12" t="n">
         <v>23</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2095,31 +2095,31 @@
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AK12" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>7.8</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2173,76 +2173,76 @@
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
         <v>19</v>
       </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
-      </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2251,13 +2251,13 @@
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G14" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2320,28 +2320,28 @@
         <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2356,7 +2356,7 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>19</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
         <v>80</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
         <v>2.02</v>
@@ -2437,7 +2437,7 @@
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.46</v>
@@ -2446,22 +2446,22 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>1.92</v>
@@ -2473,7 +2473,7 @@
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>8.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>5.1</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>1.23</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>2.64</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>60</v>
-      </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="AN2" t="n">
-        <v>46</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="I3" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>19.5</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.26</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
@@ -961,85 +961,85 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.05</v>
       </c>
-      <c r="N5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W5" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>180</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
@@ -1363,79 +1363,79 @@
         <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="n">
         <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AK7" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AL7" t="n">
         <v>120</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,82 +1477,82 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1561,10 +1561,10 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.46</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1912,28 +1912,28 @@
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
@@ -1945,13 +1945,13 @@
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
         <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>13</v>
@@ -1966,16 +1966,16 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
@@ -1987,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J12" t="n">
         <v>4.3</v>
@@ -2035,46 +2035,46 @@
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
         <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="V12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2104,25 +2104,25 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13">
@@ -2158,13 +2158,13 @@
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2173,19 +2173,19 @@
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2194,55 +2194,55 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
         <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
@@ -2251,10 +2251,10 @@
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
         <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2320,25 +2320,25 @@
         <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.16</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -2356,7 +2356,7 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>19</v>
@@ -2377,10 +2377,10 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
         <v>80</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>4.3</v>
@@ -2446,7 +2446,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2464,22 +2464,22 @@
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>36</v>
@@ -2494,7 +2494,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2506,10 +2506,10 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
         <v>28</v>
@@ -2518,7 +2518,7 @@
         <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>8.6</v>
+        <v>1.13</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>1.14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R2" t="n">
-        <v>5.1</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>2.64</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,10 +727,10 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,40 +739,40 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.8</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.800000000000001</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -788,105 +788,105 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>2.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,19 +895,19 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aliaga Futbol AS</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68 Aksaray Belediyespor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>12.5</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.34</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.23</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.05</v>
-      </c>
       <c r="W5" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>90</v>
+        <v>19.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ankaraspor</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>2.82</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK6" t="n">
         <v>25</v>
       </c>
-      <c r="Z6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.96</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>9.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.96</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>1.88</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
         <v>46</v>
       </c>
-      <c r="AI8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.18</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,800 +1733,125 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
         <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>St Gallen</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>240</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Truro City</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -658,91 +658,91 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>1.14</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>4.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1000</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AE2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,34 +751,34 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1000</v>
       </c>
-      <c r="AL2" t="n">
-        <v>60</v>
-      </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>65</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>65</v>
-      </c>
       <c r="AH3" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>340</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.79</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>2.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>16</v>
       </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
         <v>40</v>
       </c>
-      <c r="AA5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
         <v>36</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN6" t="n">
         <v>38</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>24</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
-        <v>2.16</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,396 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA9" t="n">
         <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,93 +653,93 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.03</v>
+        <v>1.52</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="n">
         <v>970</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1000</v>
       </c>
-      <c r="AC2" t="n">
-        <v>980</v>
-      </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>2.94</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AI3" t="n">
         <v>40</v>
       </c>
-      <c r="AA3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>4.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
         <v>40</v>
       </c>
-      <c r="AG5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.33</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD6" t="n">
         <v>16</v>
       </c>
-      <c r="AA6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,261 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
         <v>160</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>75</v>
-      </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.79</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>480</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>480</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>490</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN3" t="n">
         <v>36</v>
       </c>
-      <c r="AM3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
         <v>27</v>
       </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO5" t="n">
         <v>36</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,260 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.95</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>44</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>30</v>
-      </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO7" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>230</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>1.13</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.34</v>
+        <v>500</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.5</v>
+        <v>1.21</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>590</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.32</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>1.88</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>5.8</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.3</v>
       </c>
-      <c r="W5" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN5" t="n">
         <v>36</v>
       </c>
-      <c r="AA5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
       <c r="AO5" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H6" t="n">
         <v>5.3</v>
@@ -1219,52 +1219,52 @@
         <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
         <v>42</v>
@@ -1282,34 +1282,34 @@
         <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
         <v>18.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>130</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,666 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>230</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.13</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Swiss Super League</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>500</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Truro City</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wealdstone</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W4" t="n">
-        <v>34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Welsh Premiership</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Briton Ferry Llansawel</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
         <v>3.65</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>4.6</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AH2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
       </c>
-      <c r="AB2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>150</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
